--- a/0_General Data/Print Settings.xlsx
+++ b/0_General Data/Print Settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LC\Documents\Git\Open-Wing\0_General Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB193F4C-FA7B-45D3-B945-9BE0F16AF488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838268CA-25B2-435E-A688-5033C2B2CA06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="7980" activeTab="1" xr2:uid="{F8FDE17F-D961-4D39-891A-0CD456EB19CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="7980" xr2:uid="{F8FDE17F-D961-4D39-891A-0CD456EB19CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Printsettings_General" sheetId="4" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -316,11 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F06A536-0F68-4E3F-915E-6B8B0E70DAA9}">
-  <dimension ref="A2:B19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,48 +647,52 @@
     <col min="1" max="1" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -697,7 +700,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -705,7 +708,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -713,7 +716,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -721,7 +724,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -729,15 +732,19 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>-0.35</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -745,15 +752,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.4</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -761,18 +772,18 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>4</v>
       </c>
     </row>
@@ -785,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0060BB-2C79-4D88-BCCD-22344818E0DA}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
